--- a/afar_project/csv_path/excel_files/asset_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_register.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z333"/>
+  <dimension ref="A1:Z319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42543,1854 +42543,6 @@
         </is>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
-        </is>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>sdfdads</t>
-        </is>
-      </c>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J320" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M320" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N320" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O320" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P320" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q320" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R320" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S320" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T320" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U320" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V320" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W320" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X320" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y320" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z320" t="inlineStr">
-        <is>
-          <t>dfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
-        </is>
-      </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>sdfdads</t>
-        </is>
-      </c>
-      <c r="I321" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M321" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O321" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P321" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q321" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R321" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S321" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T321" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U321" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V321" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W321" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X321" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y321" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z321" t="inlineStr">
-        <is>
-          <t>dfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>sdfdads</t>
-        </is>
-      </c>
-      <c r="I322" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J322" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M322" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O322" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P322" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q322" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R322" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S322" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T322" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U322" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V322" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W322" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X322" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y322" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z322" t="inlineStr">
-        <is>
-          <t>dfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>sdfdads</t>
-        </is>
-      </c>
-      <c r="I323" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M323" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O323" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P323" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q323" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R323" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S323" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T323" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U323" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V323" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W323" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X323" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y323" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z323" t="inlineStr">
-        <is>
-          <t>dfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>sdfdads</t>
-        </is>
-      </c>
-      <c r="I324" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M324" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O324" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P324" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q324" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R324" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S324" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T324" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U324" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V324" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W324" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X324" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y324" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z324" t="inlineStr">
-        <is>
-          <t>dfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>sdfdads</t>
-        </is>
-      </c>
-      <c r="I325" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M325" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N325" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O325" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P325" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q325" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R325" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S325" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T325" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U325" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V325" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W325" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X325" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y325" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z325" t="inlineStr">
-        <is>
-          <t>dfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>sdfdads</t>
-        </is>
-      </c>
-      <c r="I326" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M326" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N326" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O326" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P326" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q326" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R326" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S326" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T326" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U326" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V326" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W326" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X326" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y326" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z326" t="inlineStr">
-        <is>
-          <t>dfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>sdfdads</t>
-        </is>
-      </c>
-      <c r="I327" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M327" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O327" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P327" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q327" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R327" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S327" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T327" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U327" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V327" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W327" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X327" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y327" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z327" t="inlineStr">
-        <is>
-          <t>dfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
-        </is>
-      </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>sdfdads</t>
-        </is>
-      </c>
-      <c r="I328" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J328" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M328" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N328" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O328" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P328" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q328" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R328" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S328" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T328" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U328" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V328" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W328" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X328" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y328" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z328" t="inlineStr">
-        <is>
-          <t>dfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
-        </is>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>sdfdads</t>
-        </is>
-      </c>
-      <c r="I329" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J329" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M329" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N329" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O329" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P329" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q329" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R329" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S329" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T329" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U329" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V329" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W329" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X329" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y329" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z329" t="inlineStr">
-        <is>
-          <t>dfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
-        </is>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>sdfdads</t>
-        </is>
-      </c>
-      <c r="I330" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M330" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O330" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P330" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q330" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R330" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S330" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T330" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U330" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V330" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W330" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X330" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y330" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z330" t="inlineStr">
-        <is>
-          <t>dfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>2024-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
-        </is>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>sdfdads</t>
-        </is>
-      </c>
-      <c r="I331" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M331" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N331" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O331" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P331" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q331" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R331" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S331" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T331" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U331" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V331" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W331" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X331" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y331" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z331" t="inlineStr">
-        <is>
-          <t>dfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>2020-2021</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>2021-03-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-T-2020-0001</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>4112204</t>
-        </is>
-      </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>Telecommunications</t>
-        </is>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I332" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M332" t="inlineStr">
-        <is>
-          <t>56.00</t>
-        </is>
-      </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O332" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P332" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q332" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R332" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S332" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T332" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U332" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V332" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W332" t="inlineStr">
-        <is>
-          <t>56.00</t>
-        </is>
-      </c>
-      <c r="X332" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="Y332" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z332" t="inlineStr">
-        <is>
-          <t>HQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>1998-1999</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>10/22/1998</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>FRC-FRC-0-C-1998-0000</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>4112202</t>
-        </is>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>kdsd</t>
-        </is>
-      </c>
-      <c r="I333" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M333" t="inlineStr">
-        <is>
-          <t>10000.00</t>
-        </is>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O333" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P333" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q333" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R333" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S333" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T333" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U333" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V333" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W333" t="inlineStr">
-        <is>
-          <t>10000.00</t>
-        </is>
-      </c>
-      <c r="X333" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="Y333" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z333" t="inlineStr">
-        <is>
-          <t>FRC</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/afar_project/csv_path/excel_files/asset_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_register.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z310"/>
+  <dimension ref="A1:Z300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40035,1326 +40035,6 @@
         </is>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>2024-04-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-M-2023-0002</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>4112101</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>Motor Vehicles</t>
-        </is>
-      </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I301" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J301" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M301" t="inlineStr">
-        <is>
-          <t>2112.00</t>
-        </is>
-      </c>
-      <c r="N301" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O301" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P301" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q301" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R301" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S301" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T301" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U301" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V301" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W301" t="inlineStr">
-        <is>
-          <t>2112.00</t>
-        </is>
-      </c>
-      <c r="X301" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="Y301" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z301" t="inlineStr">
-        <is>
-          <t>HQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>2024-04-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-M-2023-0002</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>4112101</t>
-        </is>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>Motor Vehicles</t>
-        </is>
-      </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J302" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>2112.00</t>
-        </is>
-      </c>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O302" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P302" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q302" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R302" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S302" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T302" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U302" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V302" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W302" t="inlineStr">
-        <is>
-          <t>2112.00</t>
-        </is>
-      </c>
-      <c r="X302" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="Y302" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z302" t="inlineStr">
-        <is>
-          <t>HQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>2024-04-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-M-2023-0002</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>4112101</t>
-        </is>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>Motor Vehicles</t>
-        </is>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I303" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J303" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M303" t="inlineStr">
-        <is>
-          <t>2112.00</t>
-        </is>
-      </c>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O303" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P303" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q303" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R303" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S303" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T303" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U303" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V303" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W303" t="inlineStr">
-        <is>
-          <t>2112.00</t>
-        </is>
-      </c>
-      <c r="X303" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="Y303" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z303" t="inlineStr">
-        <is>
-          <t>HQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>2024-04-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-M-2023-0002</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>4112101</t>
-        </is>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>Motor Vehicles</t>
-        </is>
-      </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I304" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J304" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M304" t="inlineStr">
-        <is>
-          <t>2112.00</t>
-        </is>
-      </c>
-      <c r="N304" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O304" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P304" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q304" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R304" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S304" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T304" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U304" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V304" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W304" t="inlineStr">
-        <is>
-          <t>2112.00</t>
-        </is>
-      </c>
-      <c r="X304" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="Y304" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z304" t="inlineStr">
-        <is>
-          <t>HQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>2021-2022</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>2022-06-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-F-2021-0003</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>4112314</t>
-        </is>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>Furniture</t>
-        </is>
-      </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M305" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-      <c r="N305" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O305" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P305" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q305" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R305" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S305" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T305" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U305" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V305" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W305" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-      <c r="X305" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="Y305" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z305" t="inlineStr">
-        <is>
-          <t>HQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>2021-2022</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>2022-06-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-F-2021-0003</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>4112314</t>
-        </is>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>Furniture</t>
-        </is>
-      </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I306" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J306" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M306" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-      <c r="N306" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O306" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P306" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q306" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R306" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S306" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T306" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U306" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V306" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W306" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-      <c r="X306" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="Y306" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z306" t="inlineStr">
-        <is>
-          <t>HQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>2019-2020</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>2020-02-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-O-2019-0006</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>4112310</t>
-        </is>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>Office equipment</t>
-        </is>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I307" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J307" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M307" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N307" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O307" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P307" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q307" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R307" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S307" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T307" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U307" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V307" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W307" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X307" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="Y307" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z307" t="inlineStr">
-        <is>
-          <t>HQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>2019-2020</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>2020-02-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-O-2019-0006</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>4112310</t>
-        </is>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>Office equipment</t>
-        </is>
-      </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J308" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M308" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="N308" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O308" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P308" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q308" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R308" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S308" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T308" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U308" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V308" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W308" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="X308" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="Y308" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z308" t="inlineStr">
-        <is>
-          <t>HQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>2024-04-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-F-2023-0006</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>Furniture (Leasehold)</t>
-        </is>
-      </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I309" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J309" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M309" t="inlineStr">
-        <is>
-          <t>56.00</t>
-        </is>
-      </c>
-      <c r="N309" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O309" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P309" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q309" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R309" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S309" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T309" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U309" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V309" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W309" t="inlineStr">
-        <is>
-          <t>56.00</t>
-        </is>
-      </c>
-      <c r="X309" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="Y309" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z309" t="inlineStr">
-        <is>
-          <t>HQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>2024-04-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-F-2023-0006</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>Furniture (Leasehold)</t>
-        </is>
-      </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I310" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J310" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M310" t="inlineStr">
-        <is>
-          <t>56.00</t>
-        </is>
-      </c>
-      <c r="N310" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O310" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P310" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q310" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R310" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S310" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T310" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U310" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V310" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="W310" t="inlineStr">
-        <is>
-          <t>56.00</t>
-        </is>
-      </c>
-      <c r="X310" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="Y310" t="inlineStr">
-        <is>
-          <t>SLM</t>
-        </is>
-      </c>
-      <c r="Z310" t="inlineStr">
-        <is>
-          <t>HQ</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
